--- a/Banco Central/13/1/2/1/Operaciones no financieras 2005 a 2021 - Mensual.xlsx
+++ b/Banco Central/13/1/2/1/Operaciones no financieras 2005 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
   <si>
     <t>Serie</t>
   </si>
@@ -512,6 +512,9 @@
   </si>
   <si>
     <t>01-05-2021</t>
+  </si>
+  <si>
+    <t>01-06-2021</t>
   </si>
 </sst>
 </file>
@@ -869,7 +872,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y142"/>
+  <dimension ref="A1:Y143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11237,7 +11240,7 @@
         <v>234732</v>
       </c>
       <c r="J138">
-        <v>3583198</v>
+        <v>3583202</v>
       </c>
       <c r="K138">
         <v>920670</v>
@@ -11246,7 +11249,7 @@
         <v>225462</v>
       </c>
       <c r="M138">
-        <v>365934</v>
+        <v>365938</v>
       </c>
       <c r="N138">
         <v>1430065</v>
@@ -11258,7 +11261,7 @@
         <v>8143</v>
       </c>
       <c r="Q138">
-        <v>680526</v>
+        <v>680521</v>
       </c>
       <c r="R138">
         <v>207287</v>
@@ -11276,10 +11279,10 @@
         <v>4263952</v>
       </c>
       <c r="W138">
-        <v>3790714</v>
+        <v>3790718</v>
       </c>
       <c r="X138">
-        <v>473238</v>
+        <v>473234</v>
       </c>
     </row>
     <row r="139" spans="1:25">
@@ -11311,7 +11314,7 @@
         <v>76878</v>
       </c>
       <c r="J139">
-        <v>3446976</v>
+        <v>3446982</v>
       </c>
       <c r="K139">
         <v>868454</v>
@@ -11320,7 +11323,7 @@
         <v>329481</v>
       </c>
       <c r="M139">
-        <v>30584</v>
+        <v>30590</v>
       </c>
       <c r="N139">
         <v>1501730</v>
@@ -11332,7 +11335,7 @@
         <v>9399</v>
       </c>
       <c r="Q139">
-        <v>110556</v>
+        <v>110550</v>
       </c>
       <c r="R139">
         <v>435374</v>
@@ -11350,10 +11353,10 @@
         <v>3557844</v>
       </c>
       <c r="W139">
-        <v>3882662</v>
+        <v>3882668</v>
       </c>
       <c r="X139">
-        <v>-324818</v>
+        <v>-324824</v>
       </c>
     </row>
     <row r="140" spans="1:25">
@@ -11385,7 +11388,7 @@
         <v>407311</v>
       </c>
       <c r="J140">
-        <v>5258983</v>
+        <v>5258991</v>
       </c>
       <c r="K140">
         <v>1118842</v>
@@ -11394,7 +11397,7 @@
         <v>430136</v>
       </c>
       <c r="M140">
-        <v>519224</v>
+        <v>519232</v>
       </c>
       <c r="N140">
         <v>2403507</v>
@@ -11406,7 +11409,7 @@
         <v>7741</v>
       </c>
       <c r="Q140">
-        <v>-992966</v>
+        <v>-992975</v>
       </c>
       <c r="R140">
         <v>643486</v>
@@ -11424,10 +11427,10 @@
         <v>4267281</v>
       </c>
       <c r="W140">
-        <v>5903732</v>
+        <v>5903741</v>
       </c>
       <c r="X140">
-        <v>-1636452</v>
+        <v>-1636460</v>
       </c>
       <c r="Y140">
         <v>-1</v>
@@ -11462,7 +11465,7 @@
         <v>303826</v>
       </c>
       <c r="J141">
-        <v>4818979</v>
+        <v>4818989</v>
       </c>
       <c r="K141">
         <v>879991</v>
@@ -11471,7 +11474,7 @@
         <v>386173</v>
       </c>
       <c r="M141">
-        <v>39190</v>
+        <v>39200</v>
       </c>
       <c r="N141">
         <v>2862426</v>
@@ -11483,7 +11486,7 @@
         <v>8377</v>
       </c>
       <c r="Q141">
-        <v>1997921</v>
+        <v>1997910</v>
       </c>
       <c r="R141">
         <v>586888</v>
@@ -11501,10 +11504,10 @@
         <v>6817229</v>
       </c>
       <c r="W141">
-        <v>5406196</v>
+        <v>5406206</v>
       </c>
       <c r="X141">
-        <v>1411033</v>
+        <v>1411023</v>
       </c>
     </row>
     <row r="142" spans="1:25">
@@ -11518,7 +11521,7 @@
         <v>2304981</v>
       </c>
       <c r="D142">
-        <v>249939</v>
+        <v>249868</v>
       </c>
       <c r="E142">
         <v>228075</v>
@@ -11527,16 +11530,16 @@
         <v>5993</v>
       </c>
       <c r="G142">
-        <v>40271</v>
+        <v>41271</v>
       </c>
       <c r="H142">
         <v>69348</v>
       </c>
       <c r="I142">
-        <v>91901</v>
+        <v>90972</v>
       </c>
       <c r="J142">
-        <v>5780757</v>
+        <v>5780770</v>
       </c>
       <c r="K142">
         <v>849715</v>
@@ -11545,7 +11548,7 @@
         <v>373217</v>
       </c>
       <c r="M142">
-        <v>31761</v>
+        <v>31773</v>
       </c>
       <c r="N142">
         <v>3704268</v>
@@ -11557,7 +11560,7 @@
         <v>15772</v>
       </c>
       <c r="Q142">
-        <v>-2790249</v>
+        <v>-2790262</v>
       </c>
       <c r="R142">
         <v>557034</v>
@@ -11575,10 +11578,87 @@
         <v>2991151</v>
       </c>
       <c r="W142">
-        <v>6338434</v>
+        <v>6338447</v>
       </c>
       <c r="X142">
-        <v>-3347283</v>
+        <v>-3347296</v>
+      </c>
+    </row>
+    <row r="143" spans="1:25">
+      <c r="A143" t="s">
+        <v>166</v>
+      </c>
+      <c r="B143">
+        <v>3713146</v>
+      </c>
+      <c r="C143">
+        <v>2757722</v>
+      </c>
+      <c r="D143">
+        <v>461533</v>
+      </c>
+      <c r="E143">
+        <v>229718</v>
+      </c>
+      <c r="F143">
+        <v>9681</v>
+      </c>
+      <c r="G143">
+        <v>25646</v>
+      </c>
+      <c r="H143">
+        <v>73921</v>
+      </c>
+      <c r="I143">
+        <v>154923</v>
+      </c>
+      <c r="J143">
+        <v>5319555</v>
+      </c>
+      <c r="K143">
+        <v>1117538</v>
+      </c>
+      <c r="L143">
+        <v>359092</v>
+      </c>
+      <c r="M143">
+        <v>22748</v>
+      </c>
+      <c r="N143">
+        <v>3116639</v>
+      </c>
+      <c r="O143">
+        <v>695384</v>
+      </c>
+      <c r="P143">
+        <v>8153</v>
+      </c>
+      <c r="Q143">
+        <v>-1606409</v>
+      </c>
+      <c r="R143">
+        <v>671374</v>
+      </c>
+      <c r="S143">
+        <v>195</v>
+      </c>
+      <c r="T143">
+        <v>350469</v>
+      </c>
+      <c r="U143">
+        <v>321100</v>
+      </c>
+      <c r="V143">
+        <v>3713341</v>
+      </c>
+      <c r="W143">
+        <v>5991124</v>
+      </c>
+      <c r="X143">
+        <v>-2277783</v>
+      </c>
+      <c r="Y143">
+        <v>-2</v>
       </c>
     </row>
   </sheetData>
